--- a/src/Assets/xlsx/ingridienents-format.xlsx
+++ b/src/Assets/xlsx/ingridienents-format.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arunsingh/Documents/sportylife/emp-client/src/Assets/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF87058C-F27B-3A49-993A-77446FDCE49A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A14DEC-B95B-1745-977B-444B512A3E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16100" xr2:uid="{621A350D-E1C4-194C-8FFE-B51E0F672220}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
   <si>
     <t>name</t>
   </si>
@@ -66,13 +66,91 @@
   </si>
   <si>
     <t>tomato</t>
+  </si>
+  <si>
+    <t>Onion</t>
+  </si>
+  <si>
+    <t>Garlic</t>
+  </si>
+  <si>
+    <t>Pumpkin</t>
+  </si>
+  <si>
+    <t>Broccoli</t>
+  </si>
+  <si>
+    <t>Artichoke</t>
+  </si>
+  <si>
+    <t>Spinach</t>
+  </si>
+  <si>
+    <t>Mint</t>
+  </si>
+  <si>
+    <t>Kale</t>
+  </si>
+  <si>
+    <t>Rapini</t>
+  </si>
+  <si>
+    <t>Beetroot</t>
+  </si>
+  <si>
+    <t>Carrot</t>
+  </si>
+  <si>
+    <t>Radish</t>
+  </si>
+  <si>
+    <t>Celeriac</t>
+  </si>
+  <si>
+    <t>Ginger</t>
+  </si>
+  <si>
+    <t>Turmeric</t>
+  </si>
+  <si>
+    <t>Cucumber</t>
+  </si>
+  <si>
+    <t>Peppers</t>
+  </si>
+  <si>
+    <t>Corn</t>
+  </si>
+  <si>
+    <t>Eggplant</t>
+  </si>
+  <si>
+    <t>Chickpeas</t>
+  </si>
+  <si>
+    <t>Cabbage</t>
+  </si>
+  <si>
+    <t>Cauliflower</t>
+  </si>
+  <si>
+    <t>Bitter Gourd</t>
+  </si>
+  <si>
+    <t>Tapioca</t>
+  </si>
+  <si>
+    <t>Lettuce</t>
+  </si>
+  <si>
+    <t>Parsnip</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -84,6 +162,18 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -108,9 +198,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,13 +517,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEB0DBA1-59C4-5E48-8CD0-91223D133533}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -502,6 +597,627 @@
         <v>100</v>
       </c>
     </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>9.5</v>
+      </c>
+      <c r="C4">
+        <v>1.3</v>
+      </c>
+      <c r="D4">
+        <v>0.2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>41</v>
+      </c>
+      <c r="G4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0.2</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>4.5</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C6">
+        <v>0.7</v>
+      </c>
+      <c r="D6">
+        <v>0.1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>7.2</v>
+      </c>
+      <c r="C7">
+        <v>2.4</v>
+      </c>
+      <c r="D7">
+        <v>0.4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>35</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>2.9</v>
+      </c>
+      <c r="D8">
+        <v>0.3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>54</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>3.8</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>0.3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>23</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>98</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0.2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>394</v>
+      </c>
+      <c r="G10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>5.6</v>
+      </c>
+      <c r="C11">
+        <v>1.9</v>
+      </c>
+      <c r="D11">
+        <v>0.4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>28</v>
+      </c>
+      <c r="G11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>2.9</v>
+      </c>
+      <c r="C12">
+        <v>3.2</v>
+      </c>
+      <c r="D12">
+        <v>0.5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>22</v>
+      </c>
+      <c r="G12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>1.7</v>
+      </c>
+      <c r="D13">
+        <v>0.2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>44</v>
+      </c>
+      <c r="G13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C14">
+        <v>0.8</v>
+      </c>
+      <c r="D14">
+        <v>0.2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <v>35</v>
+      </c>
+      <c r="G14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>3.4</v>
+      </c>
+      <c r="C15">
+        <v>0.7</v>
+      </c>
+      <c r="D15">
+        <v>0.1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <v>16</v>
+      </c>
+      <c r="G15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>5.9</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0.2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <v>27</v>
+      </c>
+      <c r="G16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17">
+        <v>18</v>
+      </c>
+      <c r="C17">
+        <v>1.8</v>
+      </c>
+      <c r="D17">
+        <v>0.8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17">
+        <v>80</v>
+      </c>
+      <c r="G17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18">
+        <v>67</v>
+      </c>
+      <c r="C18">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="D18">
+        <v>3.3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <v>312</v>
+      </c>
+      <c r="G18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19">
+        <v>3.6</v>
+      </c>
+      <c r="C19">
+        <v>0.7</v>
+      </c>
+      <c r="D19">
+        <v>0.1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19">
+        <v>15</v>
+      </c>
+      <c r="G19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20">
+        <v>6.6</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0.2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20">
+        <v>28</v>
+      </c>
+      <c r="G20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>3.4</v>
+      </c>
+      <c r="D21">
+        <v>1.5</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <v>96</v>
+      </c>
+      <c r="G21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="C22">
+        <v>0.8</v>
+      </c>
+      <c r="D22">
+        <v>0.2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22">
+        <v>35</v>
+      </c>
+      <c r="G22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23">
+        <v>27</v>
+      </c>
+      <c r="C23">
+        <v>9</v>
+      </c>
+      <c r="D23">
+        <v>2.6</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23">
+        <v>164</v>
+      </c>
+      <c r="G23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24">
+        <v>5.5</v>
+      </c>
+      <c r="C24">
+        <v>1.3</v>
+      </c>
+      <c r="D24">
+        <v>0.1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24">
+        <v>23</v>
+      </c>
+      <c r="G24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C25">
+        <v>1.8</v>
+      </c>
+      <c r="D25">
+        <v>0.5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25">
+        <v>23</v>
+      </c>
+      <c r="G25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>1.7</v>
+      </c>
+      <c r="D26">
+        <v>0.2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26">
+        <v>44</v>
+      </c>
+      <c r="G26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>4.3</v>
+      </c>
+      <c r="C27">
+        <v>0.8</v>
+      </c>
+      <c r="D27">
+        <v>0.2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27">
+        <v>19</v>
+      </c>
+      <c r="G27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>89</v>
+      </c>
+      <c r="C28">
+        <v>0.2</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28">
+        <v>358</v>
+      </c>
+      <c r="G28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>3.3</v>
+      </c>
+      <c r="C29">
+        <v>1.2</v>
+      </c>
+      <c r="D29">
+        <v>0.3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29">
+        <v>17</v>
+      </c>
+      <c r="G29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>17</v>
+      </c>
+      <c r="C30">
+        <v>1.3</v>
+      </c>
+      <c r="D30">
+        <v>0.3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30">
+        <v>71</v>
+      </c>
+      <c r="G30">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
